--- a/DIC/Lab2/Task5/N=4/task5_N4.xlsx
+++ b/DIC/Lab2/Task5/N=4/task5_N4.xlsx
@@ -512,43 +512,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.216e-12</v>
+        <v>9.125000000000001e-12</v>
       </c>
       <c r="B2" t="n">
-        <v>7.909e-12</v>
+        <v>8.113e-12</v>
       </c>
       <c r="C2" t="n">
-        <v>8.563000000000001e-12</v>
+        <v>8.619e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>7.332e-12</v>
+        <v>6.987e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>6.403e-12</v>
+        <v>6.585e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>6.868e-12</v>
+        <v>6.786e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>7.053e-12</v>
+        <v>6.93e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>6.586e-12</v>
+        <v>6.573e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>6.82e-12</v>
+        <v>6.752e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>7.661e-12</v>
+        <v>7.279000000000001e-12</v>
       </c>
       <c r="K2" t="n">
-        <v>7.102e-12</v>
+        <v>6.74e-12</v>
       </c>
       <c r="L2" t="n">
-        <v>7.382000000000001e-12</v>
+        <v>7.009e-12</v>
       </c>
       <c r="M2" t="n">
-        <v>2.963e-11</v>
+        <v>2.917e-11</v>
       </c>
       <c r="N2" t="n">
         <v>25</v>
